--- a/data/trans_orig/dukeCONF-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>29.55975591942251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30.39601200504884</v>
+        <v>30.39601200504883</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>28.51938953987327</v>
@@ -681,7 +681,7 @@
         <v>29.13201352068726</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>30.24239762435973</v>
+        <v>30.24239762435974</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>29.11879724718725</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>29.34843106249193</v>
+        <v>29.35353172482829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>30.75561311859861</v>
+        <v>30.77196818684926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29.08837565242815</v>
+        <v>29.12440224327747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29.88462113395003</v>
+        <v>29.90616537528496</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>28.03583494094293</v>
+        <v>28.00689449181064</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>30.02140267429166</v>
+        <v>30.06471627824102</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>28.72809450023955</v>
+        <v>28.73063300485596</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>29.90121712266303</v>
+        <v>29.90450841274518</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>28.83616546139183</v>
+        <v>28.81379888500665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30.49985487211212</v>
+        <v>30.52676507669775</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29.06853861861713</v>
+        <v>29.06706485196809</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>30.03962062333368</v>
+        <v>30.01849697534556</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>30.07121093308281</v>
+        <v>30.07638086328362</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.50103904858172</v>
+        <v>31.49907790566501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.91047457583076</v>
+        <v>29.94297083736162</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.82477062668502</v>
+        <v>30.81805301080966</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.94501111664822</v>
+        <v>28.89949210062596</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>30.79239899890166</v>
+        <v>30.86200274791418</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>29.49237526648777</v>
+        <v>29.53555677134569</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>30.57767531561827</v>
+        <v>30.58791554218139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>29.40136421183986</v>
+        <v>29.40436526556124</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31.02732896852737</v>
+        <v>31.05881341514521</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29.61699674178668</v>
+        <v>29.62337779475221</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>30.59968995262665</v>
+        <v>30.58386496720346</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>30.04864799952967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30.47219380456737</v>
+        <v>30.47219380456736</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>29.54473961517039</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29.73439991239834</v>
+        <v>29.74617499571743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.22762768923925</v>
+        <v>30.2329520051635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.75475099828612</v>
+        <v>29.73925416170124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30.13196709668769</v>
+        <v>30.12689721943934</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.1938998134132</v>
+        <v>29.18707151103519</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>29.77787331842221</v>
+        <v>29.76999672946439</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>29.50847789953567</v>
+        <v>29.53758454024629</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>29.59417604718373</v>
+        <v>29.59406155407449</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>29.56589224349184</v>
+        <v>29.58642564948275</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30.11557245701541</v>
+        <v>30.09810907927763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29.71679975894774</v>
+        <v>29.72423434317813</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>29.93534207534206</v>
+        <v>29.97146178884073</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.45415608079092</v>
+        <v>30.44804026170078</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>30.86615566796276</v>
+        <v>30.8539281148724</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30.33773302397377</v>
+        <v>30.33987965709381</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.82361683869917</v>
+        <v>30.82108826524838</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>29.87288844895044</v>
+        <v>29.88932469126851</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.43136596208671</v>
+        <v>30.43835773775222</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.09253622394249</v>
+        <v>30.10006009824989</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>30.24808679906324</v>
+        <v>30.23111249176485</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.05900481084845</v>
+        <v>30.06572582695451</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30.56368837691861</v>
+        <v>30.54587967948284</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30.13424385677327</v>
+        <v>30.1287606274895</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>30.41948929116701</v>
+        <v>30.42387448749774</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.07339560108736</v>
+        <v>30.0788742709745</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>30.16751987650816</v>
+        <v>30.21172981595809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28.73939407851376</v>
+        <v>28.71846335602594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29.99165506772698</v>
+        <v>30.01378587894215</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>29.42830074995884</v>
+        <v>29.36529917637442</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>29.64394871810877</v>
+        <v>29.61123204641104</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>28.59125412835283</v>
+        <v>28.58780367904038</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>29.96521280117643</v>
+        <v>29.96072756549717</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>29.86603221487648</v>
+        <v>29.90939328065121</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30.01960594354106</v>
+        <v>30.02343877338472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28.75396044782775</v>
+        <v>28.75457612535734</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>30.09392020156677</v>
+        <v>30.08923829204706</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.93336695248069</v>
+        <v>30.94331511949923</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>30.96812351581872</v>
+        <v>30.98679227781867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29.372123060826</v>
+        <v>29.35318128939244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.82365783837088</v>
+        <v>30.80479911144214</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>30.2813073835339</v>
+        <v>30.25741153407086</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.41064929770508</v>
+        <v>30.36222510658242</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>29.23621919123394</v>
+        <v>29.24307784204046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>30.62931640232416</v>
+        <v>30.60267519703683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>30.47637057288057</v>
+        <v>30.5027626406419</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30.57314356782652</v>
+        <v>30.58166632694567</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29.21951372295252</v>
+        <v>29.22177165400868</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>30.6130206669821</v>
+        <v>30.61850484911643</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.52846182138075</v>
+        <v>29.52595259817549</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>29.85559513248052</v>
+        <v>29.8600381357134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29.52568885852465</v>
+        <v>29.51853344497694</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30.17210600035307</v>
+        <v>30.13481363119156</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>28.98197229316597</v>
+        <v>28.9606243367089</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.29288275783529</v>
+        <v>29.31788970692238</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>29.35346332131803</v>
+        <v>29.33775929185288</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>30.04803165540631</v>
+        <v>30.03787358985402</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>29.35633329494999</v>
+        <v>29.34649906317636</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29.69583878868181</v>
+        <v>29.65707404958323</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29.51291180049177</v>
+        <v>29.49840839787523</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>30.20833359826732</v>
+        <v>30.19659221748744</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.23839396040496</v>
+        <v>30.21357580588628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>30.53446648387157</v>
+        <v>30.50467071944909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30.13019378409415</v>
+        <v>30.13151969276852</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30.88595770241774</v>
+        <v>30.86334286753967</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>29.69660682001635</v>
+        <v>29.67786914727166</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>29.93421448295015</v>
+        <v>29.94576094792626</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>29.98240539752696</v>
+        <v>29.95427398992862</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>30.63166874394163</v>
+        <v>30.63030859548018</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>29.88810793023829</v>
+        <v>29.87163676889788</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30.14132326481143</v>
+        <v>30.12055796316107</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29.95719571065036</v>
+        <v>29.97046495491528</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>30.6478363738176</v>
+        <v>30.6713800270357</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>29.67167292657596</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30.46629065128963</v>
+        <v>30.46629065128962</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>29.33922465401762</v>
@@ -1237,7 +1237,7 @@
         <v>29.55462498455668</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>30.32787492909922</v>
+        <v>30.32787492909923</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>29.85854038507891</v>
+        <v>29.86647373212529</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>30.40770784283417</v>
+        <v>30.40778003451061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29.51516089589522</v>
+        <v>29.51494590691967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30.26339366318895</v>
+        <v>30.28507086245338</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>29.14295016297289</v>
+        <v>29.12512021730131</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.86065180078827</v>
+        <v>29.84333081739766</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>29.27174329273004</v>
+        <v>29.26468637070264</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>30.03764597946729</v>
+        <v>30.03866099632921</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>29.55747508361557</v>
+        <v>29.54501471269719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30.18399274778895</v>
+        <v>30.18123352567719</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29.43997740014922</v>
+        <v>29.44792029355746</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>30.19639506254877</v>
+        <v>30.20159096529769</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>30.24073187587425</v>
+        <v>30.22635044885373</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.75784859296027</v>
+        <v>30.75287689900381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29.8315702464656</v>
+        <v>29.82222216723338</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.64657478677932</v>
+        <v>30.67021809160928</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>29.51611257979186</v>
+        <v>29.51851212348667</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.20509864651044</v>
+        <v>30.18712643075304</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>29.60403806307324</v>
+        <v>29.60006396263578</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>30.34814398210441</v>
+        <v>30.36597178236401</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.83852231918814</v>
+        <v>29.82383036844563</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30.42449084311148</v>
+        <v>30.4312611755994</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29.67341485126672</v>
+        <v>29.67169783606294</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>30.45881108127124</v>
+        <v>30.4560246470491</v>
       </c>
     </row>
     <row r="19">
